--- a/1des/sop/atividades/Projeto/orcamento-wfom-engenharia.xlsx
+++ b/1des/sop/atividades/Projeto/orcamento-wfom-engenharia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aula-c\senai\1des\sop\atividades\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBBB10C-ABB7-4BC2-82F1-F7F098F36598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DB7AE-4E10-4DCF-8878-D40EA5E1F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2200782-B96A-4466-8441-FB26BF537C2F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="orçamento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Atendentes</t>
   </si>
@@ -85,9 +84,6 @@
     <t>Inventor</t>
   </si>
   <si>
-    <t>Lincença Anual</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -122,6 +118,12 @@
   </si>
   <si>
     <t>Gastos</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Lincenças Anuais</t>
   </si>
 </sst>
 </file>
@@ -184,17 +186,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6718845-34AB-4E55-9EC1-D775660D078E}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,24 +539,24 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,8 +589,8 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
+      <c r="H3" t="s">
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <f>SUM(F17,E7)</f>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -633,7 +633,7 @@
         <v>28623.339999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -649,7 +649,7 @@
         <v>29692</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -665,7 +665,7 @@
         <v>35300</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
@@ -674,7 +674,7 @@
         <v>69789</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
@@ -682,20 +682,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -707,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -723,7 +724,7 @@
         <v>1221.4499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -739,8 +740,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -756,7 +756,7 @@
         <v>281.70000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -783,19 +783,20 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -809,57 +810,59 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="I23" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
